--- a/Test output data/Test_Master_roster.xlsx
+++ b/Test output data/Test_Master_roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9499C7A77B56ECD9303D18B3E10042F2F651BB8C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A2BDD3B-5D57-407A-AFBA-E35AB325CD32}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1BB509C5613277DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E475C6F3-C572-443F-8BBE-B6251CB7D38A}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Turn</t>
   </si>
   <si>
-    <t>Points</t>
-  </si>
-  <si>
     <t>Driver</t>
   </si>
   <si>
@@ -50,6 +47,33 @@
   </si>
   <si>
     <t>John Travis</t>
+  </si>
+  <si>
+    <t>John Bancroft</t>
+  </si>
+  <si>
+    <t>James Newby</t>
+  </si>
+  <si>
+    <t>Joe Gunby</t>
+  </si>
+  <si>
+    <t>Kate Billmore</t>
+  </si>
+  <si>
+    <t>Megan Charman</t>
+  </si>
+  <si>
+    <t>Rowan Joachim</t>
+  </si>
+  <si>
+    <t>Harry Billmore</t>
+  </si>
+  <si>
+    <t>Sam Billmore</t>
+  </si>
+  <si>
+    <t>Stewart Charman</t>
   </si>
 </sst>
 </file>
@@ -455,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +488,12 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,207 +512,255 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43141</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>6</v>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43142</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43142</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43142</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43145</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43146</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43148</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43149</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43149</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43149</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43152</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43153</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43155</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43156</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>6</v>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Test output data/Test_Master_roster.xlsx
+++ b/Test output data/Test_Master_roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1BD4390245D276DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1061861-D77D-45A3-B20D-63D9CF099D72}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1B1E61C7600076DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F3BA1A81-EE57-4B17-BF4C-59CE3D2C5098}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_roster" sheetId="1" r:id="rId1"/>

--- a/Test output data/Test_Master_roster.xlsx
+++ b/Test output data/Test_Master_roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1B1E61C7600076DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F3BA1A81-EE57-4B17-BF4C-59CE3D2C5098}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1B8B69015DDE76DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2030D8D-EC56-4538-8D03-5F5D06F66CDD}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test output data/Test_Master_roster.xlsx
+++ b/Test output data/Test_Master_roster.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1B8B69015DDE76DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2030D8D-EC56-4538-8D03-5F5D06F66CDD}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_roster" sheetId="1" r:id="rId1"/>

--- a/Test output data/Test_Master_roster.xlsx
+++ b/Test output data/Test_Master_roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1B8B69015DDE76DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2030D8D-EC56-4538-8D03-5F5D06F66CDD}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1B5F61474A4E76DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDB2A97B-AA11-43FC-9683-E9D335853BA9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_roster" sheetId="1" r:id="rId1"/>

--- a/Test output data/Test_Master_roster.xlsx
+++ b/Test output data/Test_Master_roster.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1B5F61474A4E76DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDB2A97B-AA11-43FC-9683-E9D335853BA9}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_roster" sheetId="1" r:id="rId1"/>

--- a/Test output data/Test_Master_roster.xlsx
+++ b/Test output data/Test_Master_roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1B5F61474A4E76DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDB2A97B-AA11-43FC-9683-E9D335853BA9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_694884815DE7E88F801F1B4801477B1A76DD7EE8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDB04E3A-D3AB-4F89-BB4C-DCC34768054F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_roster" sheetId="1" r:id="rId1"/>
